--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCD/10/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCD/10/seed2/result_data_RandomForest.xlsx
@@ -479,7 +479,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-21.44250000000003</v>
+        <v>-21.39510000000003</v>
       </c>
       <c r="B3" t="n">
         <v>4.54</v>
@@ -519,7 +519,7 @@
         <v>4.35</v>
       </c>
       <c r="C5" t="n">
-        <v>-13.8678</v>
+        <v>-13.93169999999999</v>
       </c>
       <c r="D5" t="n">
         <v>-6.27</v>
@@ -556,7 +556,7 @@
         <v>-10.59</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.423199999999996</v>
+        <v>-7.394199999999995</v>
       </c>
       <c r="E7" t="n">
         <v>14.77</v>
@@ -587,7 +587,7 @@
         <v>10.18</v>
       </c>
       <c r="C9" t="n">
-        <v>-11.84930000000001</v>
+        <v>-12.10100000000001</v>
       </c>
       <c r="D9" t="n">
         <v>-9.9</v>
@@ -621,10 +621,10 @@
         <v>6.01</v>
       </c>
       <c r="C11" t="n">
-        <v>-13.2697</v>
+        <v>-12.8593</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.282500000000001</v>
+        <v>-8.192000000000002</v>
       </c>
       <c r="E11" t="n">
         <v>13.91</v>
@@ -785,16 +785,16 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-21.07850000000001</v>
+        <v>-21.13500000000001</v>
       </c>
       <c r="B21" t="n">
         <v>7.49</v>
       </c>
       <c r="C21" t="n">
-        <v>-10.68989999999999</v>
+        <v>-10.57279999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.519200000000001</v>
+        <v>-7.171199999999998</v>
       </c>
       <c r="E21" t="n">
         <v>13.76</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-21.57090000000003</v>
+        <v>-21.41550000000002</v>
       </c>
       <c r="B23" t="n">
         <v>5.8</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-22.52770000000003</v>
+        <v>-22.56270000000003</v>
       </c>
       <c r="B25" t="n">
         <v>5.09</v>
